--- a/public/data/impexp_Productdata.xlsx
+++ b/public/data/impexp_Productdata.xlsx
@@ -514,10 +514,10 @@
         <v>887</v>
       </c>
       <c r="R2" t="str">
-        <v>596450</v>
+        <v>712441</v>
       </c>
       <c r="S2" t="str">
-        <v>6280</v>
+        <v>12874</v>
       </c>
     </row>
     <row r="3">
@@ -573,7 +573,7 @@
         <v>32239</v>
       </c>
       <c r="R3" t="str">
-        <v>16635</v>
+        <v>19485</v>
       </c>
       <c r="S3" t="str">
         <v>30958</v>
@@ -632,10 +632,10 @@
         <v>623</v>
       </c>
       <c r="R4" t="str">
-        <v>1117147</v>
+        <v>1203674</v>
       </c>
       <c r="S4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -691,10 +691,10 @@
         <v>159395</v>
       </c>
       <c r="R5" t="str">
-        <v>1352637</v>
+        <v>1406805</v>
       </c>
       <c r="S5" t="str">
-        <v>162492</v>
+        <v>182347</v>
       </c>
     </row>
     <row r="6">
@@ -750,10 +750,10 @@
         <v>10007</v>
       </c>
       <c r="R6" t="str">
-        <v>72628</v>
+        <v>81439</v>
       </c>
       <c r="S6" t="str">
-        <v>11574</v>
+        <v>12215</v>
       </c>
     </row>
     <row r="7">
@@ -809,10 +809,10 @@
         <v>6418</v>
       </c>
       <c r="R7" t="str">
-        <v>96949</v>
+        <v>102147</v>
       </c>
       <c r="S7" t="str">
-        <v>21219</v>
+        <v>21360</v>
       </c>
     </row>
     <row r="8">
@@ -868,10 +868,10 @@
         <v>828617</v>
       </c>
       <c r="R8" t="str">
-        <v>35858766</v>
+        <v>37735516</v>
       </c>
       <c r="S8" t="str">
-        <v>485830</v>
+        <v>579076</v>
       </c>
     </row>
     <row r="9">
@@ -927,10 +927,10 @@
         <v>34965</v>
       </c>
       <c r="R9" t="str">
-        <v>23498073</v>
+        <v>25872729</v>
       </c>
       <c r="S9" t="str">
-        <v>18443</v>
+        <v>23749</v>
       </c>
     </row>
     <row r="10">
@@ -986,10 +986,10 @@
         <v>13443109</v>
       </c>
       <c r="R10" t="str">
-        <v>9245488</v>
+        <v>10176957</v>
       </c>
       <c r="S10" t="str">
-        <v>12440357</v>
+        <v>13413163</v>
       </c>
     </row>
     <row r="11">
@@ -1045,10 +1045,10 @@
         <v>15812</v>
       </c>
       <c r="R11" t="str">
-        <v>57596065</v>
+        <v>60781125</v>
       </c>
       <c r="S11" t="str">
-        <v>90914</v>
+        <v>97390</v>
       </c>
     </row>
     <row r="12">
@@ -1104,10 +1104,10 @@
         <v>437571</v>
       </c>
       <c r="R12" t="str">
-        <v>2701777</v>
+        <v>2963807</v>
       </c>
       <c r="S12" t="str">
-        <v>326366</v>
+        <v>360191</v>
       </c>
     </row>
     <row r="13">
@@ -1163,10 +1163,10 @@
         <v>2334532</v>
       </c>
       <c r="R13" t="str">
-        <v>26961983</v>
+        <v>29062706</v>
       </c>
       <c r="S13" t="str">
-        <v>1836960</v>
+        <v>2069694</v>
       </c>
     </row>
     <row r="14">
@@ -1222,10 +1222,10 @@
         <v>71439</v>
       </c>
       <c r="R14" t="str">
-        <v>582597</v>
+        <v>658649</v>
       </c>
       <c r="S14" t="str">
-        <v>157651</v>
+        <v>197056</v>
       </c>
     </row>
     <row r="15">
@@ -1281,10 +1281,10 @@
         <v>3739735</v>
       </c>
       <c r="R15" t="str">
-        <v>91321</v>
+        <v>102180</v>
       </c>
       <c r="S15" t="str">
-        <v>3683818</v>
+        <v>4044660</v>
       </c>
     </row>
     <row r="16">
@@ -1340,10 +1340,10 @@
         <v>7524880</v>
       </c>
       <c r="R16" t="str">
-        <v>138547805</v>
+        <v>156149810</v>
       </c>
       <c r="S16" t="str">
-        <v>107686121</v>
+        <v>122631498</v>
       </c>
     </row>
     <row r="17">
@@ -1399,7 +1399,7 @@
         <v>2416</v>
       </c>
       <c r="R17" t="str">
-        <v>135589</v>
+        <v>158472</v>
       </c>
       <c r="S17" t="str">
         <v>2707</v>
@@ -1458,10 +1458,10 @@
         <v>596051</v>
       </c>
       <c r="R18" t="str">
-        <v>4494721</v>
+        <v>4879642</v>
       </c>
       <c r="S18" t="str">
-        <v>620361</v>
+        <v>632628</v>
       </c>
     </row>
     <row r="19">
@@ -1517,10 +1517,10 @@
         <v>1862</v>
       </c>
       <c r="R19" t="str">
-        <v>2600518</v>
+        <v>2745065</v>
       </c>
       <c r="S19" t="str">
-        <v>875</v>
+        <v>885</v>
       </c>
     </row>
     <row r="20">
@@ -1576,10 +1576,10 @@
         <v>2622439</v>
       </c>
       <c r="R20" t="str">
-        <v>6999244</v>
+        <v>7684727</v>
       </c>
       <c r="S20" t="str">
-        <v>2527589</v>
+        <v>2907579</v>
       </c>
     </row>
     <row r="21">
@@ -1635,10 +1635,10 @@
         <v>8731180</v>
       </c>
       <c r="R21" t="str">
-        <v>2210671</v>
+        <v>2384371</v>
       </c>
       <c r="S21" t="str">
-        <v>7268686</v>
+        <v>7742765</v>
       </c>
     </row>
     <row r="22">
@@ -1694,10 +1694,10 @@
         <v>604772</v>
       </c>
       <c r="R22" t="str">
-        <v>14089270</v>
+        <v>15801866</v>
       </c>
       <c r="S22" t="str">
-        <v>1337949</v>
+        <v>1500146</v>
       </c>
     </row>
     <row r="23">
@@ -1753,10 +1753,10 @@
         <v>294115</v>
       </c>
       <c r="R23" t="str">
-        <v>3983583</v>
+        <v>4217016</v>
       </c>
       <c r="S23" t="str">
-        <v>329934</v>
+        <v>396421</v>
       </c>
     </row>
     <row r="24">
@@ -1812,10 +1812,10 @@
         <v>6580086</v>
       </c>
       <c r="R24" t="str">
-        <v>23621465</v>
+        <v>25547563</v>
       </c>
       <c r="S24" t="str">
-        <v>7511503</v>
+        <v>8431030</v>
       </c>
     </row>
     <row r="25">
@@ -1871,10 +1871,10 @@
         <v>150266</v>
       </c>
       <c r="R25" t="str">
-        <v>4022747</v>
+        <v>4417026</v>
       </c>
       <c r="S25" t="str">
-        <v>228961</v>
+        <v>234570</v>
       </c>
     </row>
     <row r="26">
@@ -1930,10 +1930,10 @@
         <v>3933822</v>
       </c>
       <c r="R26" t="str">
-        <v>10363756</v>
+        <v>11500429</v>
       </c>
       <c r="S26" t="str">
-        <v>2740474</v>
+        <v>3005434</v>
       </c>
     </row>
     <row r="27">
@@ -1989,10 +1989,10 @@
         <v>412865</v>
       </c>
       <c r="R27" t="str">
-        <v>2515338</v>
+        <v>2796217</v>
       </c>
       <c r="S27" t="str">
-        <v>136483</v>
+        <v>164984</v>
       </c>
     </row>
     <row r="28">
@@ -2048,10 +2048,10 @@
         <v>1293</v>
       </c>
       <c r="R28" t="str">
-        <v>295793294</v>
+        <v>326144631</v>
       </c>
       <c r="S28" t="str">
-        <v>20283</v>
+        <v>24807</v>
       </c>
     </row>
     <row r="29">
@@ -2107,7 +2107,7 @@
         <v>318</v>
       </c>
       <c r="R29" t="str">
-        <v>5371759</v>
+        <v>5970148</v>
       </c>
       <c r="S29" t="str">
         <v>136</v>
@@ -2166,10 +2166,10 @@
         <v>33869</v>
       </c>
       <c r="R30" t="str">
-        <v>14820595</v>
+        <v>16591276</v>
       </c>
       <c r="S30" t="str">
-        <v>17161</v>
+        <v>22164</v>
       </c>
     </row>
     <row r="31">
@@ -2225,10 +2225,10 @@
         <v>1854986</v>
       </c>
       <c r="R31" t="str">
-        <v>38949848</v>
+        <v>42469335</v>
       </c>
       <c r="S31" t="str">
-        <v>1738508</v>
+        <v>2109946</v>
       </c>
     </row>
     <row r="32">
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="str">
-        <v>27757276</v>
+        <v>31204503</v>
       </c>
       <c r="S32" t="str">
         <v>0</v>
@@ -2343,10 +2343,10 @@
         <v>434335</v>
       </c>
       <c r="R33" t="str">
-        <v>9432755</v>
+        <v>10526266</v>
       </c>
       <c r="S33" t="str">
-        <v>402668</v>
+        <v>422001</v>
       </c>
     </row>
     <row r="34">
@@ -2402,10 +2402,10 @@
         <v>1564909</v>
       </c>
       <c r="R34" t="str">
-        <v>16841237</v>
+        <v>18660423</v>
       </c>
       <c r="S34" t="str">
-        <v>1418895</v>
+        <v>1600041</v>
       </c>
     </row>
     <row r="35">
@@ -2461,10 +2461,10 @@
         <v>14043</v>
       </c>
       <c r="R35" t="str">
-        <v>8582576</v>
+        <v>9365056</v>
       </c>
       <c r="S35" t="str">
-        <v>11321</v>
+        <v>11578</v>
       </c>
     </row>
     <row r="36">
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="str">
-        <v>3180097</v>
+        <v>3496904</v>
       </c>
       <c r="S36" t="str">
-        <v>2857</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="37">
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="str">
-        <v>1535431</v>
+        <v>1580848</v>
       </c>
       <c r="S37" t="str">
         <v>0</v>
@@ -2638,10 +2638,10 @@
         <v>3223</v>
       </c>
       <c r="R38" t="str">
-        <v>1246109</v>
+        <v>1397953</v>
       </c>
       <c r="S38" t="str">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
@@ -2697,10 +2697,10 @@
         <v>2126504</v>
       </c>
       <c r="R39" t="str">
-        <v>14947879</v>
+        <v>16985407</v>
       </c>
       <c r="S39" t="str">
-        <v>3485629</v>
+        <v>3870645</v>
       </c>
     </row>
     <row r="40">
@@ -2756,10 +2756,10 @@
         <v>1949410</v>
       </c>
       <c r="R40" t="str">
-        <v>60454757</v>
+        <v>67314905</v>
       </c>
       <c r="S40" t="str">
-        <v>1427872</v>
+        <v>1560201</v>
       </c>
     </row>
     <row r="41">
@@ -2815,7 +2815,7 @@
         <v>18183</v>
       </c>
       <c r="R41" t="str">
-        <v>16609870</v>
+        <v>18491717</v>
       </c>
       <c r="S41" t="str">
         <v>4700</v>
@@ -2874,10 +2874,10 @@
         <v>422005</v>
       </c>
       <c r="R42" t="str">
-        <v>73997</v>
+        <v>81618</v>
       </c>
       <c r="S42" t="str">
-        <v>406874</v>
+        <v>479632</v>
       </c>
     </row>
     <row r="43">
@@ -2933,10 +2933,10 @@
         <v>397364</v>
       </c>
       <c r="R43" t="str">
-        <v>2571259</v>
+        <v>2853773</v>
       </c>
       <c r="S43" t="str">
-        <v>241252</v>
+        <v>264914</v>
       </c>
     </row>
     <row r="44">
@@ -3051,10 +3051,10 @@
         <v>8436132</v>
       </c>
       <c r="R45" t="str">
-        <v>4352775</v>
+        <v>4817370</v>
       </c>
       <c r="S45" t="str">
-        <v>8596946</v>
+        <v>9428698</v>
       </c>
     </row>
     <row r="46">
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="str">
-        <v>3093</v>
+        <v>3625</v>
       </c>
       <c r="S46" t="str">
         <v>0</v>
@@ -3169,10 +3169,10 @@
         <v>16538</v>
       </c>
       <c r="R47" t="str">
-        <v>9491</v>
+        <v>10485</v>
       </c>
       <c r="S47" t="str">
-        <v>7847</v>
+        <v>8428</v>
       </c>
     </row>
     <row r="48">
@@ -3228,7 +3228,7 @@
         <v>88678</v>
       </c>
       <c r="R48" t="str">
-        <v>419416</v>
+        <v>458607</v>
       </c>
       <c r="S48" t="str">
         <v>0</v>
@@ -3287,10 +3287,10 @@
         <v>1020890</v>
       </c>
       <c r="R49" t="str">
-        <v>15829208</v>
+        <v>17442459</v>
       </c>
       <c r="S49" t="str">
-        <v>1116361</v>
+        <v>1222664</v>
       </c>
     </row>
     <row r="50">
@@ -3346,10 +3346,10 @@
         <v>53021</v>
       </c>
       <c r="R50" t="str">
-        <v>4822491</v>
+        <v>5526568</v>
       </c>
       <c r="S50" t="str">
-        <v>16915</v>
+        <v>19815</v>
       </c>
     </row>
     <row r="51">
@@ -3405,7 +3405,7 @@
         <v>314</v>
       </c>
       <c r="R51" t="str">
-        <v>677230</v>
+        <v>757102</v>
       </c>
       <c r="S51" t="str">
         <v>411</v>
@@ -3464,7 +3464,7 @@
         <v>7625</v>
       </c>
       <c r="R52" t="str">
-        <v>4747138</v>
+        <v>5144822</v>
       </c>
       <c r="S52" t="str">
         <v>3426</v>
@@ -3523,10 +3523,10 @@
         <v>166613</v>
       </c>
       <c r="R53" t="str">
-        <v>10785804</v>
+        <v>11840829</v>
       </c>
       <c r="S53" t="str">
-        <v>29301</v>
+        <v>29754</v>
       </c>
     </row>
     <row r="54">
@@ -3582,10 +3582,10 @@
         <v>4914186</v>
       </c>
       <c r="R54" t="str">
-        <v>4851173</v>
+        <v>5417336</v>
       </c>
       <c r="S54" t="str">
-        <v>5970451</v>
+        <v>6661427</v>
       </c>
     </row>
     <row r="55">
@@ -3641,10 +3641,10 @@
         <v>2671268</v>
       </c>
       <c r="R55" t="str">
-        <v>3502390</v>
+        <v>3860627</v>
       </c>
       <c r="S55" t="str">
-        <v>2822371</v>
+        <v>3133411</v>
       </c>
     </row>
     <row r="56">
@@ -3700,10 +3700,10 @@
         <v>11696720</v>
       </c>
       <c r="R56" t="str">
-        <v>18925343</v>
+        <v>20741854</v>
       </c>
       <c r="S56" t="str">
-        <v>12970049</v>
+        <v>14321208</v>
       </c>
     </row>
     <row r="57">
@@ -3759,10 +3759,10 @@
         <v>4885294</v>
       </c>
       <c r="R57" t="str">
-        <v>1462151</v>
+        <v>1585724</v>
       </c>
       <c r="S57" t="str">
-        <v>4691556</v>
+        <v>5223204</v>
       </c>
     </row>
     <row r="58">
@@ -3818,10 +3818,10 @@
         <v>11486544</v>
       </c>
       <c r="R58" t="str">
-        <v>550287</v>
+        <v>577804</v>
       </c>
       <c r="S58" t="str">
-        <v>11155113</v>
+        <v>12253236</v>
       </c>
     </row>
     <row r="59">
@@ -3877,10 +3877,10 @@
         <v>18320</v>
       </c>
       <c r="R59" t="str">
-        <v>1588218</v>
+        <v>1740805</v>
       </c>
       <c r="S59" t="str">
-        <v>6226</v>
+        <v>6227</v>
       </c>
     </row>
     <row r="60">
@@ -3936,10 +3936,10 @@
         <v>103324</v>
       </c>
       <c r="R60" t="str">
-        <v>2922790</v>
+        <v>3169805</v>
       </c>
       <c r="S60" t="str">
-        <v>135049</v>
+        <v>139654</v>
       </c>
     </row>
     <row r="61">
@@ -3995,10 +3995,10 @@
         <v>779</v>
       </c>
       <c r="R61" t="str">
-        <v>9672652</v>
+        <v>10405980</v>
       </c>
       <c r="S61" t="str">
-        <v>825</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="62">
@@ -4054,10 +4054,10 @@
         <v>3976962</v>
       </c>
       <c r="R62" t="str">
-        <v>11533001</v>
+        <v>12111750</v>
       </c>
       <c r="S62" t="str">
-        <v>3659278</v>
+        <v>4177835</v>
       </c>
     </row>
     <row r="63">
@@ -4113,10 +4113,10 @@
         <v>3976962</v>
       </c>
       <c r="R63" t="str">
-        <v>11533001</v>
+        <v>12111750</v>
       </c>
       <c r="S63" t="str">
-        <v>3659278</v>
+        <v>4177835</v>
       </c>
     </row>
     <row r="64">
@@ -4172,10 +4172,10 @@
         <v>3064326</v>
       </c>
       <c r="R64" t="str">
-        <v>2517842</v>
+        <v>2708165</v>
       </c>
       <c r="S64" t="str">
-        <v>2582588</v>
+        <v>2879529</v>
       </c>
     </row>
     <row r="65">
@@ -4231,10 +4231,10 @@
         <v>1325381</v>
       </c>
       <c r="R65" t="str">
-        <v>8935989</v>
+        <v>9785731</v>
       </c>
       <c r="S65" t="str">
-        <v>1770142</v>
+        <v>2043732</v>
       </c>
     </row>
     <row r="66">
@@ -4290,10 +4290,10 @@
         <v>123936</v>
       </c>
       <c r="R66" t="str">
-        <v>1357611</v>
+        <v>1444216</v>
       </c>
       <c r="S66" t="str">
-        <v>66869</v>
+        <v>72112</v>
       </c>
     </row>
     <row r="67">
@@ -4349,10 +4349,10 @@
         <v>363</v>
       </c>
       <c r="R67" t="str">
-        <v>703716</v>
+        <v>790075</v>
       </c>
       <c r="S67" t="str">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
@@ -4408,10 +4408,10 @@
         <v>82848</v>
       </c>
       <c r="R68" t="str">
-        <v>151347</v>
+        <v>164650</v>
       </c>
       <c r="S68" t="str">
-        <v>87043</v>
+        <v>95814</v>
       </c>
     </row>
     <row r="69">
@@ -4467,10 +4467,10 @@
         <v>97058</v>
       </c>
       <c r="R69" t="str">
-        <v>4969312</v>
+        <v>5423689</v>
       </c>
       <c r="S69" t="str">
-        <v>93244</v>
+        <v>101102</v>
       </c>
     </row>
     <row r="70">
@@ -4526,10 +4526,10 @@
         <v>51174</v>
       </c>
       <c r="R70" t="str">
-        <v>7096306</v>
+        <v>7754019</v>
       </c>
       <c r="S70" t="str">
-        <v>113308</v>
+        <v>123100</v>
       </c>
     </row>
     <row r="71">
@@ -4585,10 +4585,10 @@
         <v>1071181</v>
       </c>
       <c r="R71" t="str">
-        <v>9502148</v>
+        <v>10559952</v>
       </c>
       <c r="S71" t="str">
-        <v>898499</v>
+        <v>990118</v>
       </c>
     </row>
     <row r="72">
@@ -4644,10 +4644,10 @@
         <v>448021</v>
       </c>
       <c r="R72" t="str">
-        <v>32142869</v>
+        <v>32572850</v>
       </c>
       <c r="S72" t="str">
-        <v>366226</v>
+        <v>449586</v>
       </c>
     </row>
     <row r="73">
@@ -4703,10 +4703,10 @@
         <v>15652765</v>
       </c>
       <c r="R73" t="str">
-        <v>127790633</v>
+        <v>136890453</v>
       </c>
       <c r="S73" t="str">
-        <v>13450455</v>
+        <v>14304275</v>
       </c>
     </row>
     <row r="74">
@@ -4762,10 +4762,10 @@
         <v>1749898</v>
       </c>
       <c r="R74" t="str">
-        <v>23085051</v>
+        <v>25608357</v>
       </c>
       <c r="S74" t="str">
-        <v>1978719</v>
+        <v>2052917</v>
       </c>
     </row>
     <row r="75">
@@ -4821,10 +4821,10 @@
         <v>1289579</v>
       </c>
       <c r="R75" t="str">
-        <v>8680634</v>
+        <v>9949912</v>
       </c>
       <c r="S75" t="str">
-        <v>1177453</v>
+        <v>1329969</v>
       </c>
     </row>
     <row r="76">
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="R76" t="str">
-        <v>22027</v>
+        <v>23590</v>
       </c>
       <c r="S76" t="str">
         <v>22</v>
@@ -4939,10 +4939,10 @@
         <v>113925</v>
       </c>
       <c r="R77" t="str">
-        <v>13653188</v>
+        <v>15064968</v>
       </c>
       <c r="S77" t="str">
-        <v>173769</v>
+        <v>271364</v>
       </c>
     </row>
     <row r="78">
@@ -4998,10 +4998,10 @@
         <v>1328071</v>
       </c>
       <c r="R78" t="str">
-        <v>73814</v>
+        <v>84221</v>
       </c>
       <c r="S78" t="str">
-        <v>879678</v>
+        <v>937631</v>
       </c>
     </row>
     <row r="79">
@@ -5057,10 +5057,10 @@
         <v>46026</v>
       </c>
       <c r="R79" t="str">
-        <v>4532604</v>
+        <v>4978820</v>
       </c>
       <c r="S79" t="str">
-        <v>30081</v>
+        <v>37209</v>
       </c>
     </row>
     <row r="80">
@@ -5116,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="R80" t="str">
-        <v>381316</v>
+        <v>386227</v>
       </c>
       <c r="S80" t="str">
         <v>0</v>
@@ -5175,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="R81" t="str">
-        <v>43105</v>
+        <v>50106</v>
       </c>
       <c r="S81" t="str">
         <v>0</v>
@@ -5234,10 +5234,10 @@
         <v>2001300</v>
       </c>
       <c r="R82" t="str">
-        <v>4541448</v>
+        <v>5106154</v>
       </c>
       <c r="S82" t="str">
-        <v>1936330</v>
+        <v>2284419</v>
       </c>
     </row>
     <row r="83">
@@ -5293,10 +5293,10 @@
         <v>428336</v>
       </c>
       <c r="R83" t="str">
-        <v>5808758</v>
+        <v>6544932</v>
       </c>
       <c r="S83" t="str">
-        <v>391075</v>
+        <v>417227</v>
       </c>
     </row>
     <row r="84">
@@ -5352,10 +5352,10 @@
         <v>1087242</v>
       </c>
       <c r="R84" t="str">
-        <v>112802615</v>
+        <v>124154272</v>
       </c>
       <c r="S84" t="str">
-        <v>1388011</v>
+        <v>1531198</v>
       </c>
     </row>
     <row r="85">
@@ -5411,10 +5411,10 @@
         <v>182127</v>
       </c>
       <c r="R85" t="str">
-        <v>104817988</v>
+        <v>116957970</v>
       </c>
       <c r="S85" t="str">
-        <v>124831</v>
+        <v>127834</v>
       </c>
     </row>
     <row r="86">
@@ -5470,7 +5470,7 @@
         <v>5122</v>
       </c>
       <c r="R86" t="str">
-        <v>28089</v>
+        <v>30475</v>
       </c>
       <c r="S86" t="str">
         <v>0</v>
@@ -5529,10 +5529,10 @@
         <v>162553</v>
       </c>
       <c r="R87" t="str">
-        <v>101629625</v>
+        <v>109121119</v>
       </c>
       <c r="S87" t="str">
-        <v>98467</v>
+        <v>111157</v>
       </c>
     </row>
     <row r="88">
@@ -5588,7 +5588,7 @@
         <v>92025</v>
       </c>
       <c r="R88" t="str">
-        <v>6632149</v>
+        <v>7557708</v>
       </c>
       <c r="S88" t="str">
         <v>868641</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="R89" t="str">
-        <v>17555</v>
+        <v>23920</v>
       </c>
       <c r="S89" t="str">
         <v>0</v>
@@ -5706,10 +5706,10 @@
         <v>149956</v>
       </c>
       <c r="R90" t="str">
-        <v>23452952</v>
+        <v>27573807</v>
       </c>
       <c r="S90" t="str">
-        <v>153380</v>
+        <v>158453</v>
       </c>
     </row>
     <row r="91">
@@ -5765,10 +5765,10 @@
         <v>592</v>
       </c>
       <c r="R91" t="str">
-        <v>1426569</v>
+        <v>1552361</v>
       </c>
       <c r="S91" t="str">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="92">
@@ -5824,10 +5824,10 @@
         <v>943310</v>
       </c>
       <c r="R92" t="str">
-        <v>371560</v>
+        <v>416460</v>
       </c>
       <c r="S92" t="str">
-        <v>982725</v>
+        <v>1103747</v>
       </c>
     </row>
     <row r="93">
@@ -5886,7 +5886,7 @@
         <v>1120835</v>
       </c>
       <c r="S93" t="str">
-        <v>2013</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="94">
@@ -5942,10 +5942,10 @@
         <v>140609</v>
       </c>
       <c r="R94" t="str">
-        <v>7840853</v>
+        <v>8537486</v>
       </c>
       <c r="S94" t="str">
-        <v>162354</v>
+        <v>168203</v>
       </c>
     </row>
     <row r="95">
@@ -6001,10 +6001,10 @@
         <v>505799</v>
       </c>
       <c r="R95" t="str">
-        <v>3668888</v>
+        <v>4035127</v>
       </c>
       <c r="S95" t="str">
-        <v>349501</v>
+        <v>391062</v>
       </c>
     </row>
     <row r="96">
@@ -6060,10 +6060,10 @@
         <v>754590</v>
       </c>
       <c r="R96" t="str">
-        <v>9462082</v>
+        <v>10272844</v>
       </c>
       <c r="S96" t="str">
-        <v>375456</v>
+        <v>406746</v>
       </c>
     </row>
     <row r="97">
@@ -6119,10 +6119,10 @@
         <v>524372</v>
       </c>
       <c r="R97" t="str">
-        <v>4047</v>
+        <v>4909</v>
       </c>
       <c r="S97" t="str">
-        <v>247596</v>
+        <v>269283</v>
       </c>
     </row>
   </sheetData>
